--- a/public/assets/family-o.xlsx
+++ b/public/assets/family-o.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lyan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF83F1F-CEA3-0D46-8BFD-1AA6ED748031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0462D11-5865-AF4C-B975-881FE6FF6055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-11920" yWindow="-28320" windowWidth="51200" windowHeight="28320" xr2:uid="{32A692C0-3F66-6544-B80D-03B2286C74B4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
   <si>
     <t>家庭资产负债表</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>科目</t>
-  </si>
-  <si>
-    <t>金额</t>
   </si>
   <si>
     <t>财务指标</t>
@@ -115,30 +112,6 @@
   </si>
   <si>
     <t>指标说明</t>
-  </si>
-  <si>
-    <t>小计：</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <charset val="134"/>
-      </rPr>
-      <t>负债率=总负债/总资产</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-负债率&lt;70%，较安全
-注：家庭中夫妻双方一人失业，负债率降低20%；一人工作不稳要降低10%</t>
-    </r>
   </si>
   <si>
     <t>投资
@@ -206,9 +179,6 @@
     <t>货币基金含余额宝等</t>
   </si>
   <si>
-    <t>其他资产</t>
-  </si>
-  <si>
     <t>保险现金价值</t>
   </si>
   <si>
@@ -271,6 +241,46 @@
   <si>
     <t>总负债</t>
   </si>
+  <si>
+    <t>小计</t>
+  </si>
+  <si>
+    <t>备注:</t>
+  </si>
+  <si>
+    <t>1. 表格上所有有颜色的部分均不需要填写，不得修改，已设置公式自动计算；</t>
+  </si>
+  <si>
+    <t>2. 请填写表格上无颜色部分，可做适度修改，增加未列项，可在无颜色表格中小计前一行无颜色行上插入增加行。</t>
+  </si>
+  <si>
+    <t>其它资产</t>
+  </si>
+  <si>
+    <t>金额（万元）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">                                                              负债率=总负债/总资产</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+负债率&lt;70%，较安全
+注：家庭中夫妻双方一人失业，负债率降低20%；一人工作不稳要降低10%
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -279,14 +289,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00_ ;[Red]\-0.00\ "/>
   </numFmts>
-  <fonts count="12">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -309,13 +312,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei Light"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei Light"/>
@@ -330,13 +326,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Microsoft YaHei Light"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Microsoft YaHei Light"/>
       <charset val="134"/>
     </font>
@@ -358,8 +347,45 @@
       <name val="Microsoft YaHei Light"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="微软雅黑 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,37 +406,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8CBAD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6DEB5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,18 +436,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93CDDC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B183"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -498,21 +536,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -590,17 +613,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -618,10 +630,80 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -632,245 +714,347 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF93CDDC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1179,571 +1363,623 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC3FCC1-BCAA-5246-B799-580AF1349F47}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
     <col min="6" max="6" width="28.83203125" customWidth="1"/>
+    <col min="7" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:11" ht="23">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-    </row>
-    <row r="2" spans="1:9" ht="21">
-      <c r="A2" s="60" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74"/>
+    </row>
+    <row r="2" spans="1:11" ht="21">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="61" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="63" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-    </row>
-    <row r="3" spans="1:9" ht="17">
-      <c r="A3" s="64" t="s">
+      <c r="H2" s="33"/>
+      <c r="I2" s="34"/>
+    </row>
+    <row r="3" spans="1:11" ht="17">
+      <c r="A3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="58"/>
+      <c r="F3" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:11" ht="17" customHeight="1">
+      <c r="A4" s="20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="17">
-      <c r="A4" s="48" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="2">
+        <v>120</v>
+      </c>
+      <c r="D4" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5">
-        <v>120</v>
-      </c>
-      <c r="D4" s="51" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="2">
         <v>12</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
+      <c r="H4" s="60">
         <f>F28/C28</f>
         <v>0.16901408450704225</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17">
+      <c r="A5" s="21"/>
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="17">
-      <c r="A5" s="49"/>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5" s="55"/>
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5">
-        <v>10</v>
-      </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="5">
-        <v>2</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="9">
+      <c r="H5" s="60">
         <f>C26/C27</f>
         <v>0.31638418079096048</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17">
+      <c r="A6" s="21"/>
+      <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="17">
-      <c r="A6" s="49"/>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="2">
+        <v>8</v>
+      </c>
+      <c r="D6" s="55"/>
+      <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5">
-        <v>8</v>
-      </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="5">
+      <c r="H6" s="16" t="e">
+        <f>C20/F27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="17">
+      <c r="A7" s="21"/>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="55"/>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2">
         <v>2</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="10">
-        <f>C20/F27</f>
-        <v>3.36</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17">
-      <c r="A7" s="49"/>
-      <c r="B7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="4" t="s">
+      <c r="G7" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="5">
-        <v>2</v>
-      </c>
-      <c r="G7" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-    </row>
-    <row r="8" spans="1:9" ht="17">
-      <c r="A8" s="50"/>
-      <c r="B8" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="14">
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
+    </row>
+    <row r="8" spans="1:11" ht="17" customHeight="1">
+      <c r="A8" s="22"/>
+      <c r="B8" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="3">
         <f>SUM(C4:C7)</f>
         <v>139</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="57"/>
-    </row>
-    <row r="9" spans="1:9" ht="17">
-      <c r="A9" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="D8" s="55"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="38"/>
+      <c r="I8" s="39"/>
+    </row>
+    <row r="9" spans="1:11" ht="17" customHeight="1">
+      <c r="A9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+      <c r="D9" s="55"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="42"/>
+    </row>
+    <row r="10" spans="1:11" ht="17">
+      <c r="A10" s="21"/>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2">
         <v>29</v>
       </c>
-      <c r="C9" s="5">
-        <v>10</v>
-      </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="34"/>
-    </row>
-    <row r="10" spans="1:9" ht="17">
-      <c r="A10" s="49"/>
-      <c r="B10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="5">
-        <v>29</v>
-      </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34"/>
-    </row>
-    <row r="11" spans="1:9" ht="17">
-      <c r="A11" s="50"/>
-      <c r="B11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="D10" s="55"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="42"/>
+    </row>
+    <row r="11" spans="1:11" ht="17">
+      <c r="A11" s="22"/>
+      <c r="B11" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="3">
         <f>SUM(C9:C10)</f>
         <v>39</v>
       </c>
-      <c r="D11" s="53"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="16">
+        <v>55</v>
+      </c>
+      <c r="F11" s="13">
         <f>SUM(F4:F10)</f>
         <v>18</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="34"/>
-    </row>
-    <row r="12" spans="1:9" ht="17">
-      <c r="A12" s="58" t="s">
+      <c r="G11" s="40"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="42"/>
+    </row>
+    <row r="12" spans="1:11" ht="17" customHeight="1">
+      <c r="A12" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2">
+        <v>12</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="40"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="42"/>
+    </row>
+    <row r="13" spans="1:11" ht="17">
+      <c r="A13" s="21"/>
+      <c r="B13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="5">
-        <v>12</v>
-      </c>
-      <c r="D12" s="51" t="s">
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="55"/>
+      <c r="E13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="42"/>
+    </row>
+    <row r="14" spans="1:11" ht="17">
+      <c r="A14" s="21"/>
+      <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="5">
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="55"/>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3</v>
+      </c>
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="42"/>
+    </row>
+    <row r="15" spans="1:11" ht="17" customHeight="1">
+      <c r="A15" s="21"/>
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="2">
         <v>1</v>
       </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="34"/>
-    </row>
-    <row r="13" spans="1:9" ht="17">
-      <c r="A13" s="58"/>
-      <c r="B13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="5">
-        <v>2</v>
-      </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="4" t="s">
+      <c r="D15" s="55"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="5">
-        <v>2</v>
-      </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34"/>
-    </row>
-    <row r="14" spans="1:9" ht="17">
-      <c r="A14" s="58"/>
-      <c r="B14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="5">
-        <v>2</v>
-      </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="5">
-        <v>3</v>
-      </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="34"/>
-    </row>
-    <row r="15" spans="1:9" ht="17">
-      <c r="A15" s="58"/>
-      <c r="B15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="34"/>
-    </row>
-    <row r="16" spans="1:9" ht="17">
-      <c r="A16" s="58"/>
-      <c r="B16" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="14">
+      <c r="H15" s="63"/>
+      <c r="I15" s="64"/>
+      <c r="K15" s="61"/>
+    </row>
+    <row r="16" spans="1:11" ht="17">
+      <c r="A16" s="23"/>
+      <c r="B16" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="3">
         <f>SUM(C12:C15)</f>
         <v>17</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="34"/>
-    </row>
-    <row r="17" spans="1:9" ht="17">
-      <c r="A17" s="58" t="s">
+      <c r="D16" s="55"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="42"/>
+    </row>
+    <row r="17" spans="1:10" ht="17">
+      <c r="A17" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="55"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="42"/>
+    </row>
+    <row r="18" spans="1:10" ht="17">
+      <c r="A18" s="18"/>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="55"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="42"/>
+    </row>
+    <row r="19" spans="1:10" ht="17">
+      <c r="A19" s="18"/>
+      <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="5">
-        <v>2</v>
-      </c>
-      <c r="D17" s="52"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="34"/>
-    </row>
-    <row r="18" spans="1:9" ht="17">
-      <c r="A18" s="58"/>
-      <c r="B18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="5">
-        <v>2</v>
-      </c>
-      <c r="D18" s="52"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="34"/>
-    </row>
-    <row r="19" spans="1:9" ht="17">
-      <c r="A19" s="58"/>
-      <c r="B19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="5">
+      <c r="C19" s="2">
         <v>3</v>
       </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="34"/>
-    </row>
-    <row r="20" spans="1:9" ht="17">
-      <c r="A20" s="58"/>
-      <c r="B20" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="18">
+      <c r="D19" s="55"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="42"/>
+    </row>
+    <row r="20" spans="1:10" ht="17">
+      <c r="A20" s="25"/>
+      <c r="B20" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="3">
         <f>SUM(C17:C19)</f>
         <v>7</v>
       </c>
-      <c r="D20" s="53"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="16">
+        <v>55</v>
+      </c>
+      <c r="F20" s="13">
         <f>SUM(F12:F19)</f>
         <v>6</v>
       </c>
-      <c r="G20" s="35"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="34"/>
-    </row>
-    <row r="21" spans="1:9" ht="17">
-      <c r="A21" s="58" t="s">
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
+    </row>
+    <row r="21" spans="1:10" ht="17" customHeight="1">
+      <c r="A21" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="7">
+        <v>2</v>
+      </c>
+      <c r="G21" s="40"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="42"/>
+    </row>
+    <row r="22" spans="1:10" ht="17" customHeight="1">
+      <c r="A22" s="18"/>
+      <c r="B22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+      <c r="D22" s="55"/>
+      <c r="E22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="5">
+      <c r="F22" s="7">
         <v>2</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="G22" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="H22" s="63"/>
+      <c r="I22" s="64"/>
+    </row>
+    <row r="23" spans="1:10" ht="17">
+      <c r="A23" s="18"/>
+      <c r="B23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="20">
-        <v>2</v>
-      </c>
-      <c r="G21" s="35"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="34"/>
-    </row>
-    <row r="22" spans="1:9" ht="17">
-      <c r="A22" s="58"/>
-      <c r="B22" s="4" t="s">
+      <c r="C23" s="2">
+        <v>3</v>
+      </c>
+      <c r="D23" s="55"/>
+      <c r="E23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="7">
+        <v>8</v>
+      </c>
+      <c r="G23" s="40"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="42"/>
+    </row>
+    <row r="24" spans="1:10" ht="17">
+      <c r="A24" s="18"/>
+      <c r="B24" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C24" s="2">
         <v>3</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="20">
-        <v>2</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="34"/>
-    </row>
-    <row r="23" spans="1:9" ht="17">
-      <c r="A23" s="58"/>
-      <c r="B23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="5">
-        <v>3</v>
-      </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="20">
-        <v>8</v>
-      </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="34"/>
-    </row>
-    <row r="24" spans="1:9" ht="17">
-      <c r="A24" s="58"/>
-      <c r="B24" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="5">
-        <v>3</v>
-      </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="34"/>
-    </row>
-    <row r="25" spans="1:9" ht="17">
-      <c r="A25" s="58"/>
-      <c r="B25" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="18">
+      <c r="D24" s="55"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="42"/>
+    </row>
+    <row r="25" spans="1:10" ht="17">
+      <c r="A25" s="19"/>
+      <c r="B25" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="3">
         <f>SUM(C21:C24)</f>
         <v>11</v>
       </c>
-      <c r="D25" s="31"/>
+      <c r="D25" s="56"/>
       <c r="E25" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="23">
+        <v>55</v>
+      </c>
+      <c r="F25" s="5">
         <f>SUM(F21:F24)</f>
         <v>12</v>
       </c>
-      <c r="G25" s="35"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="34"/>
-    </row>
-    <row r="26" spans="1:9" ht="17">
-      <c r="A26" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="25">
+      <c r="G25" s="40"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="42"/>
+    </row>
+    <row r="26" spans="1:10" ht="17">
+      <c r="A26" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="53">
         <f>C11+C16</f>
         <v>56</v>
       </c>
-      <c r="D26" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="25">
-        <v>25</v>
-      </c>
-      <c r="G26" s="35"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="34"/>
-    </row>
-    <row r="27" spans="1:9" ht="17">
-      <c r="A27" s="40"/>
-      <c r="B27" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="26">
+      <c r="D26" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="50"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="42"/>
+    </row>
+    <row r="27" spans="1:10" ht="17">
+      <c r="A27" s="31"/>
+      <c r="B27" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="51">
         <f>C28-F28</f>
         <v>177</v>
       </c>
-      <c r="D27" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="45"/>
-      <c r="F27" s="67">
+      <c r="D27" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="48"/>
+      <c r="F27" s="51">
         <f>(F26/12)</f>
-        <v>2.0833333333333335</v>
-      </c>
-      <c r="G27" s="35"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="34"/>
-    </row>
-    <row r="28" spans="1:9" ht="17">
-      <c r="A28" s="41"/>
-      <c r="B28" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="28">
+        <v>0</v>
+      </c>
+      <c r="G27" s="40"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="42"/>
+    </row>
+    <row r="28" spans="1:10" ht="17">
+      <c r="A28" s="32"/>
+      <c r="B28" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="52">
         <f>SUM(C8,C11,C16,C20,C25)</f>
         <v>213</v>
       </c>
-      <c r="D28" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="47"/>
-      <c r="F28" s="28">
+      <c r="D28" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="44"/>
+      <c r="F28" s="52">
         <f>SUM(F25,F20,F11)</f>
         <v>36</v>
       </c>
-      <c r="G28" s="36"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="38"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="68"/>
+    </row>
+    <row r="29" spans="1:10" ht="17">
+      <c r="A29" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="71"/>
+    </row>
+    <row r="30" spans="1:10" ht="17">
+      <c r="A30" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="17"/>
+    </row>
+    <row r="31" spans="1:10" ht="17">
+      <c r="A31" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="17"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="22">
